--- a/graphs.xlsx
+++ b/graphs.xlsx
@@ -143,7 +143,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -353,11 +352,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="402839216"/>
-        <c:axId val="733587168"/>
+        <c:axId val="-869589472"/>
+        <c:axId val="-869601440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="402839216"/>
+        <c:axId val="-869589472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -397,7 +396,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="733587168"/>
+        <c:crossAx val="-869601440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -405,7 +404,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="733587168"/>
+        <c:axId val="-869601440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -453,7 +452,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="402839216"/>
+        <c:crossAx val="-869589472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -467,7 +466,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -726,11 +724,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="437831008"/>
-        <c:axId val="671295216"/>
+        <c:axId val="-869597632"/>
+        <c:axId val="-869592736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="437831008"/>
+        <c:axId val="-869597632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -848,12 +846,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="671295216"/>
+        <c:crossAx val="-869592736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="671295216"/>
+        <c:axId val="-869592736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -970,7 +968,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="437831008"/>
+        <c:crossAx val="-869597632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1166,11 +1164,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="402838672"/>
-        <c:axId val="402836496"/>
+        <c:axId val="-869598720"/>
+        <c:axId val="-869598176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="402838672"/>
+        <c:axId val="-869598720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1288,12 +1286,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="402836496"/>
+        <c:crossAx val="-869598176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="402836496"/>
+        <c:axId val="-869598176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1406,7 +1404,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="402838672"/>
+        <c:crossAx val="-869598720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3437,7 +3435,7 @@
   <dimension ref="B4:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
